--- a/metanaly_fulldataset.xlsx
+++ b/metanaly_fulldataset.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maslein/Desktop/thesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{605C549C-7780-6644-89A3-903083FCBDEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{097FA068-060D-6C47-AAEB-F820D286928F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="180" yWindow="460" windowWidth="27640" windowHeight="15080" xr2:uid="{91BB1903-1808-2647-B602-9ADB3433B97D}"/>
   </bookViews>
